--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3090" yWindow="1245" windowWidth="18900" windowHeight="12315" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Results_20251015_201101" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Results_20251016_192946" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -437,8 +437,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName="Sheet2">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="3.75" customWidth="1" min="1" max="1"/>
+    <col width="15.125" customWidth="1" min="2" max="2"/>
+    <col width="68.5" customWidth="1" min="3" max="3"/>
+    <col width="33.125" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>テストID</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>モジュール</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>実行</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Clear-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Clear "solution" sheet's values.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>clearsolution.py</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
@@ -486,109 +568,47 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clear-01</t>
+          <t>Read-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Clear "solution" sheet's values.</t>
+          <t>Reading "puzzle" sheet's values as problem board.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>clearsolution.py</t>
+          <t>readpuzzle.py</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>○</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="3.75" customWidth="1" min="1" max="1"/>
-    <col width="15.125" customWidth="1" min="2" max="2"/>
-    <col width="68.5" customWidth="1" min="3" max="3"/>
-    <col width="33.125" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>テストID</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>説明</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>モジュール</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>実行</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>結果</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Read-01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Reading "puzzle" sheet's values as problem board.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>readpuzzle.py</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:F3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -657,7 +677,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -668,7 +688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,21 +699,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockcandidates_1_1", "line": 59, "succeeded": true, "runned_at": "2025-10-15 20:10:52.471"}</t>
+          <t>{"testid": "Clear-01", "module": "clearsolution.py", "function": "test_clearsolution", "line": 5, "succeeded": true, "runned_at": "2025-10-16 19:29:39.575"}</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockcandidates_2_3", "line": 79, "succeeded": true, "runned_at": "2025-10-15 20:10:57.111"}</t>
+          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockcandidates_1_1", "line": 59, "succeeded": true, "runned_at": "2025-10-16 19:29:43.135"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockscandidates", "line": 99, "succeeded": true, "runned_at": "2025-10-15 20:11:01.645"}</t>
+          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockcandidates_2_3", "line": 79, "succeeded": true, "runned_at": "2025-10-16 19:29:44.930"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockscandidates", "line": 99, "succeeded": true, "runned_at": "2025-10-16 19:29:46.894"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{"testid": "Read-01", "module": "readpuzzle.py", "function": "test_readboard", "line": 5, "succeeded": true, "runned_at": "2025-10-16 19:29:41.382"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Results_20251016_192946" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Results_20251017_122736" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -444,8 +444,8 @@
   </sheetPr>
   <dimension ref="B2:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -497,16 +497,6 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>clearsolution.py</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>○</t>
         </is>
       </c>
     </row>
@@ -581,16 +571,6 @@
           <t>readpuzzle.py</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,8 +588,8 @@
   </sheetPr>
   <dimension ref="B2:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -660,7 +640,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>derivation.py</t>
+          <t>derivation_basic.py</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -688,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,35 +679,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Clear-01", "module": "clearsolution.py", "function": "test_clearsolution", "line": 5, "succeeded": true, "runned_at": "2025-10-16 19:29:39.575"}</t>
+          <t>{"testid": "Derive-01", "module": "derivation_basic.py", "function": "test_derive_rowcandidates_4", "line": 181, "succeeded": true, "runned_at": "2025-10-17 12:27:34.722"}</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockcandidates_1_1", "line": 59, "succeeded": true, "runned_at": "2025-10-16 19:29:43.135"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockcandidates_2_3", "line": 79, "succeeded": true, "runned_at": "2025-10-16 19:29:44.930"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>{"testid": "Derive-01", "module": "derivation.py", "function": "test_derive_blockscandidates", "line": 99, "succeeded": true, "runned_at": "2025-10-16 19:29:46.894"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{"testid": "Read-01", "module": "readpuzzle.py", "function": "test_readboard", "line": 5, "succeeded": true, "runned_at": "2025-10-16 19:29:41.382"}</t>
+          <t>{"testid": "Derive-01", "module": "derivation_basic.py", "function": "test_derive_rowscandidates", "line": 201, "succeeded": true, "runned_at": "2025-10-17 12:27:36.420"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Results_20251017_122736" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Results_20251019_134304" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,14 +679,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Derive-01", "module": "derivation_basic.py", "function": "test_derive_rowcandidates_4", "line": 181, "succeeded": true, "runned_at": "2025-10-17 12:27:34.722"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>{"testid": "Derive-01", "module": "derivation_basic.py", "function": "test_derive_rowscandidates", "line": 201, "succeeded": true, "runned_at": "2025-10-17 12:27:36.420"}</t>
+          <t>{"testid": "Derive-01", "module": "derivation_basic.py", "function": "test_derive_cellcandidates_basic", "line": 250, "succeeded": true, "runned_at": "2025-10-19 13:43:04.055"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Results_20251019_134304" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Results_20251019_182621" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -586,10 +586,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -643,12 +643,29 @@
           <t>derivation_basic.py</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Derive-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Deriving all candidates on the board</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>derivation_board.py</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>○</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>○</t>
         </is>
@@ -679,7 +696,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Derive-01", "module": "derivation_basic.py", "function": "test_derive_cellcandidates_basic", "line": 250, "succeeded": true, "runned_at": "2025-10-19 13:43:04.055"}</t>
+          <t>{"testid": "Derive-02", "module": "derivation_board.py", "function": "test_copyboard", "line": 34, "succeeded": true, "runned_at": "2025-10-19 18:26:21.671"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Results_20251019_182621" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="search" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Results_20251020_182039" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -163,6 +164,20 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="TestSetTable4" displayName="TestSetTable4" ref="B2:F7" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="B2:F7"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="テストID"/>
+    <tableColumn id="2" name="説明"/>
+    <tableColumn id="3" name="モジュール"/>
+    <tableColumn id="4" name="実行"/>
+    <tableColumn id="5" name="結果"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TestSetTable45" displayName="TestSetTable45" ref="B2:F7" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B2:F7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="テストID"/>
@@ -588,8 +603,8 @@
   </sheetPr>
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -660,16 +675,6 @@
           <t>derivation_board.py</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -681,11 +686,93 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="3.75" customWidth="1" min="1" max="1"/>
+    <col width="15.125" customWidth="1" min="2" max="2"/>
+    <col width="68.5" customWidth="1" min="3" max="3"/>
+    <col width="33.125" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>テストID</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>モジュール</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>実行</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Search-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Searcing leaf note.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>search.py</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,7 +783,35 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Derive-02", "module": "derivation_board.py", "function": "test_copyboard", "line": 34, "succeeded": true, "runned_at": "2025-10-19 18:26:21.671"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_phi", "line": 124, "succeeded": true, "runned_at": "2025-10-20 18:20:33.383"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_solved", "line": 114, "succeeded": true, "runned_at": "2025-10-20 18:20:35.018"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_fullstep", "line": 163, "succeeded": true, "runned_at": "2025-10-20 18:20:36.628"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_onestep", "line": 138, "succeeded": true, "runned_at": "2025-10-20 18:20:38.291"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_twostep", "line": 150, "succeeded": true, "runned_at": "2025-10-20 18:20:39.960"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="search" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results_20251020_182039" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_20251022_011418" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -690,10 +690,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F3"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Searcing leaf note.</t>
+          <t>Searching leaf node.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -747,14 +747,48 @@
           <t>search.py</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Search-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Solve problem.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>solve.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Search-03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Full process.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>solvepuzzle.py</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>○</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>○</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>×</t>
         </is>
       </c>
     </row>
@@ -772,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,35 +817,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_phi", "line": 124, "succeeded": true, "runned_at": "2025-10-20 18:20:33.383"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_solved", "line": 114, "succeeded": true, "runned_at": "2025-10-20 18:20:35.018"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_fullstep", "line": 163, "succeeded": true, "runned_at": "2025-10-20 18:20:36.628"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_onestep", "line": 138, "succeeded": true, "runned_at": "2025-10-20 18:20:38.291"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_twostep", "line": 150, "succeeded": true, "runned_at": "2025-10-20 18:20:39.960"}</t>
+          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_beginner", "line": 45, "succeeded": false, "runned_at": "2025-10-22 01:14:18.383"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="search" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results_20251022_011418" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_20251024_185634" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>○</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_beginner", "line": 45, "succeeded": false, "runned_at": "2025-10-22 01:14:18.383"}</t>
+          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_beginner", "line": 35, "succeeded": true, "runned_at": "2025-10-24 18:56:34.770"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="search" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results_20251024_185634" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_20251025_164050" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -693,7 +693,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
@@ -747,6 +747,16 @@
           <t>search.py</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -779,16 +789,6 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>solvepuzzle.py</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>○</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +817,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_beginner", "line": 35, "succeeded": true, "runned_at": "2025-10-24 18:56:34.770"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_solved", "line": 129, "succeeded": true, "runned_at": "2025-10-25 16:40:41.671"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_phi", "line": 140, "succeeded": true, "runned_at": "2025-10-25 16:40:43.500"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_difficult", "line": 189, "succeeded": true, "runned_at": "2025-10-25 16:40:45.291"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_fullstep", "line": 178, "succeeded": true, "runned_at": "2025-10-25 16:40:47.110"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_onestep", "line": 151, "succeeded": true, "runned_at": "2025-10-25 16:40:48.795"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_twostep", "line": 164, "succeeded": true, "runned_at": "2025-10-25 16:40:50.590"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="search" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results_20251025_164050" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_20251025_172051" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -817,42 +817,42 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_solved", "line": 129, "succeeded": true, "runned_at": "2025-10-25 16:40:41.671"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_solved", "line": 129, "succeeded": true, "runned_at": "2025-10-25 17:20:43.153"}</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_phi", "line": 140, "succeeded": true, "runned_at": "2025-10-25 16:40:43.500"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_phi", "line": 140, "succeeded": true, "runned_at": "2025-10-25 17:20:44.808"}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_difficult", "line": 189, "succeeded": true, "runned_at": "2025-10-25 16:40:45.291"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_difficult", "line": 189, "succeeded": true, "runned_at": "2025-10-25 17:20:46.457"}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_fullstep", "line": 178, "succeeded": true, "runned_at": "2025-10-25 16:40:47.110"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_fullstep", "line": 178, "succeeded": true, "runned_at": "2025-10-25 17:20:48.107"}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_onestep", "line": 151, "succeeded": true, "runned_at": "2025-10-25 16:40:48.795"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_onestep", "line": 151, "succeeded": true, "runned_at": "2025-10-25 17:20:49.801"}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_twostep", "line": 164, "succeeded": true, "runned_at": "2025-10-25 16:40:50.590"}</t>
+          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_twostep", "line": 164, "succeeded": true, "runned_at": "2025-10-25 17:20:51.425"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="search" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results_20251025_172051" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_20251025_172851" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -747,16 +747,6 @@
           <t>search.py</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -789,6 +779,16 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>solvepuzzle.py</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>△</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,42 +817,14 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_leaf_solved", "line": 129, "succeeded": true, "runned_at": "2025-10-25 17:20:43.153"}</t>
+          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_beginner", "line": 67, "succeeded": true, "runned_at": "2025-10-25 17:28:49.911"}</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_phi", "line": 140, "succeeded": true, "runned_at": "2025-10-25 17:20:44.808"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_difficult", "line": 189, "succeeded": true, "runned_at": "2025-10-25 17:20:46.457"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_fullstep", "line": 178, "succeeded": true, "runned_at": "2025-10-25 17:20:48.107"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_onestep", "line": 151, "succeeded": true, "runned_at": "2025-10-25 17:20:49.801"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-01", "module": "search.py", "function": "test_search_solve_twostep", "line": 164, "succeeded": true, "runned_at": "2025-10-25 17:20:51.425"}</t>
+          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_expert", "line": 80, "succeeded": false, "runned_at": "2025-10-25 17:28:51.571"}</t>
         </is>
       </c>
     </row>

--- a/sample/numberplace/test/results/scenario_nps.xlsx
+++ b/sample/numberplace/test/results/scenario_nps.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="13065" tabRatio="600" firstSheet="2" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clear" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Read" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="derivation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="search" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Results_20251025_172851" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Results_20251027_164012" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -601,98 +601,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
-  <cols>
-    <col width="3.75" customWidth="1" min="1" max="1"/>
-    <col width="15.125" customWidth="1" min="2" max="2"/>
-    <col width="68.5" customWidth="1" min="3" max="3"/>
-    <col width="33.125" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>テストID</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>説明</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>モジュール</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>実行</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>結果</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Derive-01</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Deriving candidates for block on the board</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>derivation_basic.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Derive-02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Deriving all candidates on the board</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>derivation_board.py</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -734,61 +645,51 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Search-01</t>
+          <t>Derive-01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Searching leaf node.</t>
+          <t>Deriving candidates for block on the board</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>search.py</t>
+          <t>derivation_basic.py</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Search-02</t>
+          <t>Derive-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Solve problem.</t>
+          <t>Deriving all candidates on the board</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>solve.py</t>
+          <t>derivation_board.py</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Search-03</t>
+          <t>Derive-03</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Full process.</t>
+          <t>Deriving hard problem.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>solvepuzzle.py</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>○</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>△</t>
+          <t>derivation_hard.py</t>
         </is>
       </c>
     </row>
@@ -800,13 +701,129 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet4">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
+  <cols>
+    <col width="3.75" customWidth="1" min="1" max="1"/>
+    <col width="15.125" customWidth="1" min="2" max="2"/>
+    <col width="68.5" customWidth="1" min="3" max="3"/>
+    <col width="33.125" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>テストID</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>説明</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>モジュール</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>実行</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>結果</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Search-01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Searching leaf node.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>search.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Search-02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Solve problem.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>solve.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Search-03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Full process.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>solvepuzzle.py</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>○</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,14 +834,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_beginner", "line": 67, "succeeded": true, "runned_at": "2025-10-25 17:28:49.911"}</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_expert", "line": 80, "succeeded": false, "runned_at": "2025-10-25 17:28:51.571"}</t>
+          <t>{"testid": "Search-03", "module": "solvepuzzle.py", "function": "test_fullprocess_expert", "line": 80, "succeeded": false, "runned_at": "2025-10-27 16:40:12.694"}</t>
         </is>
       </c>
     </row>
